--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhk123/Documents/Teaching/CprE381_sp2019/TermProject/Proj2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/381/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FEAA03-7A1D-E045-AB67-C9F2E8E67365}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E73CCC7B-7408-024C-99E6-6A444AECED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="27720" windowHeight="17040" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="520" yWindow="760" windowWidth="27720" windowHeight="16240" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Instruction</t>
   </si>
@@ -197,6 +197,111 @@
       </rPr>
       <t>[the alu will perform an add of A and B]</t>
     </r>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>"000000"</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>"001001"</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>"100100"</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>"001100"</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>"001111"</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>"100011"</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>0000-</t>
+  </si>
+  <si>
+    <t>"100111"</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>"100110"</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>"001110"</t>
+  </si>
+  <si>
+    <t>1101-</t>
+  </si>
+  <si>
+    <t>"100000"*</t>
+  </si>
+  <si>
+    <t>0000 and *</t>
+  </si>
+  <si>
+    <t>0001 or *</t>
+  </si>
+  <si>
+    <t>0010 add/addi *</t>
+  </si>
+  <si>
+    <t>0011 addu</t>
+  </si>
+  <si>
+    <t>0100 addiu</t>
+  </si>
+  <si>
+    <t>0101 xor</t>
+  </si>
+  <si>
+    <t>0110 sub *</t>
+  </si>
+  <si>
+    <t>0111 slt *</t>
+  </si>
+  <si>
+    <t>1000 subiu</t>
+  </si>
+  <si>
+    <t>1001 sll</t>
+  </si>
+  <si>
+    <t>1010 srl</t>
+  </si>
+  <si>
+    <t>1011 sra</t>
+  </si>
+  <si>
+    <t>1100 repl.qb</t>
+  </si>
+  <si>
+    <t>1101 nor</t>
   </si>
 </sst>
 </file>
@@ -246,13 +351,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,10 +376,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,7 +421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -418,7 +527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,34 +701,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -638,7 +747,7 @@
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -670,8 +779,159 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/381/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E73CCC7B-7408-024C-99E6-6A444AECED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D69BC2E-C972-D444-8B15-5E85DD27B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="760" windowWidth="27720" windowHeight="16240" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="520" yWindow="500" windowWidth="27720" windowHeight="16240" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Instruction</t>
   </si>
@@ -302,6 +302,90 @@
   </si>
   <si>
     <t>1101 nor</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>"100101"</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>"001101"</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>"101010"</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>"001010"</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>"000010"</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>"000011"</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>"101011"</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>"100010"</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>"000100"</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>"000101"</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>0001-</t>
+  </si>
+  <si>
+    <t>0111-</t>
+  </si>
+  <si>
+    <t>0110-</t>
   </si>
 </sst>
 </file>
@@ -374,10 +458,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,13 +757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,73 +944,202 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">"100000"*</t>
   </si>
   <si>
-    <t xml:space="preserve">0000-</t>
+    <t xml:space="preserve">0010 [the alu will perform an add of A and B]</t>
   </si>
   <si>
     <t xml:space="preserve">addiu</t>
@@ -263,12 +263,18 @@
     <t xml:space="preserve">"001001"</t>
   </si>
   <si>
+    <t xml:space="preserve">\0100</t>
+  </si>
+  <si>
     <t xml:space="preserve">and</t>
   </si>
   <si>
     <t xml:space="preserve">"100100"</t>
   </si>
   <si>
+    <t xml:space="preserve">\0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">andi</t>
   </si>
   <si>
@@ -302,6 +308,9 @@
     <t xml:space="preserve">"100110"</t>
   </si>
   <si>
+    <t xml:space="preserve">\0101</t>
+  </si>
+  <si>
     <t xml:space="preserve">xori</t>
   </si>
   <si>
@@ -323,6 +332,9 @@
     <t xml:space="preserve">"001101"</t>
   </si>
   <si>
+    <t xml:space="preserve">\0001</t>
+  </si>
+  <si>
     <t xml:space="preserve">slt</t>
   </si>
   <si>
@@ -338,21 +350,33 @@
     <t xml:space="preserve">"001010"</t>
   </si>
   <si>
+    <t xml:space="preserve">\0111</t>
+  </si>
+  <si>
     <t xml:space="preserve">sll</t>
   </si>
   <si>
+    <t xml:space="preserve">\1001</t>
+  </si>
+  <si>
     <t xml:space="preserve">srl</t>
   </si>
   <si>
     <t xml:space="preserve">"000010"</t>
   </si>
   <si>
+    <t xml:space="preserve">\1010</t>
+  </si>
+  <si>
     <t xml:space="preserve">sra</t>
   </si>
   <si>
     <t xml:space="preserve">"000011"</t>
   </si>
   <si>
+    <t xml:space="preserve">\1011</t>
+  </si>
+  <si>
     <t xml:space="preserve">sw</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
   </si>
   <si>
     <t xml:space="preserve">subu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\1000</t>
   </si>
   <si>
     <t xml:space="preserve">beq</t>
@@ -553,11 +580,11 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -678,190 +705,223 @@
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
@@ -869,67 +929,67 @@
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Proj1_control_signals.xlsx
+++ b/Proj1_control_signals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CprE381\Proj1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/381/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EEF285-DFA4-4EC9-8712-C8453E3AE457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A8A378-B4F1-BB46-8ED0-2AA7FDED28F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>Instruction</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Shift</t>
   </si>
 </sst>
 </file>
@@ -443,17 +446,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,845 +794,1418 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27" style="3" customWidth="1"/>
-    <col min="9" max="9" width="45.5" style="3" customWidth="1"/>
-    <col min="10" max="1024" width="10.875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="1" customWidth="1"/>
+    <col min="10" max="1024" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>1101</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>101</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>101</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>111</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>111</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>1001</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>1010</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>1011</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>110</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>110</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
         <v>0</v>
       </c>
     </row>
